--- a/PLP/PLP Documents/Review/Code Review/Peer Review/Defect Tracking Sheet/Code_Defect_Tracking.xlsx
+++ b/PLP/PLP Documents/Review/Code Review/Peer Review/Defect Tracking Sheet/Code_Defect_Tracking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rjt\PLP\PLP Documents\Review\Code Review\Peer Review\Defect Tracking Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\nevil\Desktop\PLP\PLP\PLP Documents\Review\Code Review\Peer Review\Defect Tracking Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>Status</t>
   </si>
@@ -804,9 +804,6 @@
     <t>REP</t>
   </si>
   <si>
-    <t xml:space="preserve">PPR </t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
@@ -864,53 +861,58 @@
     <t>Eclipse</t>
   </si>
   <si>
-    <t>13/03/2017</t>
-  </si>
-  <si>
-    <t>Airline Reservation System</t>
-  </si>
-  <si>
     <t>Group 1</t>
   </si>
   <si>
-    <t>Insert Flight Information Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous date is also accepted. </t>
-  </si>
-  <si>
-    <t>The Departure city and Arrival city must not be same.</t>
-  </si>
-  <si>
-    <t>Ritika Mishra</t>
-  </si>
-  <si>
-    <t>Rajat Bhutani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rajat.aggarwal@capgemini.com
-rabina.chand@capgemini.com
-rajat.bhutani @capgemini.com
-ritika.a.mishra@capgemini.com
-farah.jamal@capgemini.com
-priya.b.kaushik@capgemini.com
-jeeveswar.medavaram@capgemini.com
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Insert Employee Information Module</t>
+  </si>
+  <si>
+    <t>Any date of birth accepted, no age validation is there.</t>
+  </si>
+  <si>
+    <t>Age of employee must be greater than 19 based on date of birth of employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future date is also accepted. </t>
+  </si>
+  <si>
+    <t>The Date inserted should be  system date or any past date.</t>
+  </si>
+  <si>
+    <t>Aishwarya Mankar</t>
+  </si>
+  <si>
+    <t>Thota Balaji Kumar</t>
+  </si>
+  <si>
+    <t>Tripti Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nevil.nevil@capgemini.com
+midhun.kumar-h@capgemini.com
+thotta.balaji.kumar@capgemini.com
+tripti.verma@capgemini.com
+veena.kamat@capgemini.com
+faizahmed.mullani@capgemini.com
+minaj.shaikh@capgemini.com
+pragathi.pragathi@capgemini.com
+aishwarya.mankar@capgemini.com
 </t>
   </si>
   <si>
-    <t>Rajat Aggarwal</t>
-  </si>
-  <si>
-    <t>The Date inserted should be an upcoming date and upto 2 months</t>
-  </si>
-  <si>
-    <t>Depatrure City and Arrival City can be same</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>ACT</t>
+    <t>Nevil Jeevan</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Team Leader</t>
+  </si>
+  <si>
+    <t>Expense Management System</t>
   </si>
 </sst>
 </file>
@@ -918,7 +920,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1325,10 +1327,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1418,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1997,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="17.25" customHeight="1"/>
@@ -2009,41 +2011,41 @@
     <col min="4" max="4" width="26.85546875" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="16" customWidth="1"/>
     <col min="6" max="22" width="10.28515625" style="16" customWidth="1"/>
-    <col min="23" max="16384" width="10.28515625" style="23"/>
+    <col min="23" max="16384" width="10.28515625" style="22"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4" s="12" customFormat="1" ht="23.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="2:4" s="13" customFormat="1" ht="15.75">
       <c r="C5" s="14"/>
     </row>
     <row r="6" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B6" s="45" t="s">
-        <v>80</v>
+      <c r="B6" s="44" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="17.25" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="48"/>
+      <c r="C7" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="47"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="48"/>
+      <c r="C8" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="2:4" ht="17.25" customHeight="1">
       <c r="B9" s="17"/>
@@ -2062,11 +2064,15 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.25">
-      <c r="B12" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="52">
+        <v>43346</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="17.25" customHeight="1">
       <c r="B13" s="18" t="s">
@@ -2080,11 +2086,15 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.25">
-      <c r="B14" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="52">
+        <v>43347</v>
+      </c>
     </row>
     <row r="15" spans="2:4" ht="17.25" customHeight="1">
       <c r="B15" s="18" t="s">
@@ -2098,29 +2108,29 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.25">
-      <c r="B16" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="2:4" ht="113.25" customHeight="1">
-      <c r="B17" s="20" t="s">
+      <c r="B16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="2:4" ht="138.75" customHeight="1">
+      <c r="B17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="21"/>
+      <c r="C17" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2142,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2171,7 +2181,7 @@
     <col min="24" max="24" width="12.140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="14.28515625" style="1" customWidth="1"/>
     <col min="26" max="27" width="9.140625" style="1"/>
-    <col min="28" max="31" width="9.140625" style="37"/>
+    <col min="28" max="31" width="9.140625" style="36"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2180,32 +2190,32 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="D1" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
       <c r="J1" s="11"/>
-      <c r="AB1" s="37" t="s">
+      <c r="AB1" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" customFormat="1" ht="13.5" thickBot="1">
+      <c r="AB2" s="37" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" customFormat="1" ht="13.5" thickBot="1">
-      <c r="AB2" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="38"/>
     </row>
     <row r="3" spans="1:32" s="3" customFormat="1" ht="39" thickBot="1">
       <c r="A3" s="9" t="s">
@@ -2283,45 +2293,45 @@
       <c r="Y3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
-        <v>57</v>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="57.75" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="8">
         <v>1</v>
@@ -2329,35 +2339,35 @@
       <c r="K4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="43" t="s">
+      <c r="L4" s="42">
+        <v>43168</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="O4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="43" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="S4" s="42">
+        <v>43199</v>
+      </c>
+      <c r="T4" s="42">
+        <v>43199</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V4" s="8">
         <v>1</v>
@@ -2366,57 +2376,57 @@
         <v>1</v>
       </c>
       <c r="X4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="60">
+      <c r="A5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA4" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE4" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4" s="37" t="s">
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="45">
-      <c r="A5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="I5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
@@ -2424,35 +2434,35 @@
       <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="43">
-        <v>43042</v>
-      </c>
-      <c r="M5" s="43" t="s">
+      <c r="L5" s="42">
+        <v>43168</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" s="8" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="43">
-        <v>43042</v>
-      </c>
-      <c r="T5" s="43">
-        <v>43042</v>
+        <v>75</v>
+      </c>
+      <c r="S5" s="42">
+        <v>43199</v>
+      </c>
+      <c r="T5" s="42">
+        <v>43199</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V5" s="8">
         <v>1</v>
@@ -2461,27 +2471,28 @@
         <v>1</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="37" t="s">
+      <c r="AC5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" s="37" t="s">
-        <v>60</v>
+      <c r="AD5" s="36" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
@@ -2533,115 +2544,115 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:7" ht="18.75" thickBot="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" thickBot="1">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" s="26" customFormat="1" ht="30.75" thickBot="1">
-      <c r="B4" s="27" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" s="25" customFormat="1" ht="30.75" thickBot="1">
+      <c r="B4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="13.5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
